--- a/biology/Botanique/Bellidiastrum_michelii/Bellidiastrum_michelii.xlsx
+++ b/biology/Botanique/Bellidiastrum_michelii/Bellidiastrum_michelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster fausse-pâquerette
 Bellidiastrum michelii, l'Aster fausse-pâquerette ou Aster de Micheli, est une espèce de plante à fleurs de montagne de la famille des Asteraceae, du genre des Asters.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aster michelii (L.) Scop.
 Bellidiastrum bellidiastrum (L.) H. Karst.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée vivace de 30 cm de hauteur en moyenne, voire entre 10 et 35 cm. 
 Les feuilles sont de forme ovale ou spatulée, se trouvent en partie base de la tige (basilaires) et comportent 3 nervures bien visibles. 
@@ -553,8 +569,6 @@
 Les capitules sont solitaires sur des hampes sans feuilles. 
 Les fleurs sont de teinte blanche, rose, voire purpurine, et ligulées
 Les akènes sont velus et surmontés d'une aigrette hirsute.
-Confusion possible
-Avec la pâquerette (Bellis perennis).
 </t>
         </is>
       </c>
@@ -580,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Floraison</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mai à août.
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la pâquerette (Bellis perennis).
 </t>
         </is>
       </c>
@@ -611,12 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Montagnes : pelouses, abords de sources, forêts claires. 8OO à 2 600 mètres d'altitude, parfois abyssal (330 m).
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mai à août.
 </t>
         </is>
       </c>
@@ -642,10 +664,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montagnes : pelouses, abords de sources, forêts claires. 8OO à 2 600 mètres d'altitude, parfois abyssal (330 m).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bellidiastrum_michelii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bellidiastrum_michelii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Montagnes d'Europe centrale et méridionale, commun dans les Alpes.
 </t>
